--- a/gender_est_data.xlsx
+++ b/gender_est_data.xlsx
@@ -406,16 +406,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>-6.4402638888537</v>
+        <v>-6.44</v>
       </c>
       <c r="C2">
-        <v>0.2614728988139172</v>
+        <v>0.261</v>
       </c>
       <c r="D2">
         <v>1669</v>
       </c>
       <c r="E2">
-        <v>-24.63071285042452</v>
+        <v>-24.631</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -440,16 +440,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>-3.620677613385824</v>
+        <v>-3.621</v>
       </c>
       <c r="C3">
-        <v>0.4607720232920653</v>
+        <v>0.461</v>
       </c>
       <c r="D3">
         <v>1669</v>
       </c>
       <c r="E3">
-        <v>-7.857850369293836</v>
+        <v>-7.858</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -474,16 +474,16 @@
         </is>
       </c>
       <c r="B4">
-        <v>-8.765356619513824</v>
+        <v>-8.765000000000001</v>
       </c>
       <c r="C4">
-        <v>0.5957443933767479</v>
+        <v>0.596</v>
       </c>
       <c r="D4">
         <v>1669</v>
       </c>
       <c r="E4">
-        <v>-14.71328428259437</v>
+        <v>-14.713</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -508,16 +508,16 @@
         </is>
       </c>
       <c r="B5">
-        <v>-11.34232418007906</v>
+        <v>-11.342</v>
       </c>
       <c r="C5">
-        <v>0.639428848655975</v>
+        <v>0.639</v>
       </c>
       <c r="D5">
         <v>1669</v>
       </c>
       <c r="E5">
-        <v>-17.73821153662313</v>
+        <v>-17.738</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -542,16 +542,16 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.7160070949549596</v>
+        <v>0.716</v>
       </c>
       <c r="C6">
-        <v>0.2280873291959008</v>
+        <v>0.228</v>
       </c>
       <c r="D6">
         <v>1669</v>
       </c>
       <c r="E6">
-        <v>3.139179618083878</v>
+        <v>3.139</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -576,16 +576,16 @@
         </is>
       </c>
       <c r="B7">
-        <v>-1.16589297276547</v>
+        <v>-1.166</v>
       </c>
       <c r="C7">
-        <v>0.1179293334500714</v>
+        <v>0.118</v>
       </c>
       <c r="D7">
         <v>1669</v>
       </c>
       <c r="E7">
-        <v>-9.886369562659171</v>
+        <v>-9.885999999999999</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -610,16 +610,16 @@
         </is>
       </c>
       <c r="B8">
-        <v>-3.682294330629219</v>
+        <v>-3.682</v>
       </c>
       <c r="C8">
-        <v>0.1906357530137795</v>
+        <v>0.191</v>
       </c>
       <c r="D8">
         <v>1669</v>
       </c>
       <c r="E8">
-        <v>-19.31586427212872</v>
+        <v>-19.316</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -644,16 +644,16 @@
         </is>
       </c>
       <c r="B9">
-        <v>-7.888919689850038</v>
+        <v>-7.889</v>
       </c>
       <c r="C9">
-        <v>0.4151745240588232</v>
+        <v>0.415</v>
       </c>
       <c r="D9">
         <v>1669</v>
       </c>
       <c r="E9">
-        <v>-19.00145416613354</v>
+        <v>-19.001</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -678,16 +678,16 @@
         </is>
       </c>
       <c r="B10">
-        <v>-5.124018570748514</v>
+        <v>-5.124</v>
       </c>
       <c r="C10">
-        <v>0.4736904753680271</v>
+        <v>0.474</v>
       </c>
       <c r="D10">
         <v>1669</v>
       </c>
       <c r="E10">
-        <v>-10.81722947198269</v>
+        <v>-10.817</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -712,16 +712,16 @@
         </is>
       </c>
       <c r="B11">
-        <v>-13.95641639214006</v>
+        <v>-13.956</v>
       </c>
       <c r="C11">
-        <v>0.5523845184285791</v>
+        <v>0.552</v>
       </c>
       <c r="D11">
         <v>1669</v>
       </c>
       <c r="E11">
-        <v>-25.26576311704608</v>
+        <v>-25.266</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -746,16 +746,16 @@
         </is>
       </c>
       <c r="B12">
-        <v>-13.74472356451166</v>
+        <v>-13.745</v>
       </c>
       <c r="C12">
-        <v>0.5858838703944972</v>
+        <v>0.586</v>
       </c>
       <c r="D12">
         <v>1669</v>
       </c>
       <c r="E12">
-        <v>-23.45980877619455</v>
+        <v>-23.46</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -780,16 +780,16 @@
         </is>
       </c>
       <c r="B13">
-        <v>-9.616631216344395</v>
+        <v>-9.617000000000001</v>
       </c>
       <c r="C13">
-        <v>0.2902720367925033</v>
+        <v>0.29</v>
       </c>
       <c r="D13">
         <v>1669</v>
       </c>
       <c r="E13">
-        <v>-33.12971970227605</v>
+        <v>-33.13</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
